--- a/data/Results/Llama3B_zero_shot_medium_answer_relevance.xlsx
+++ b/data/Results/Llama3B_zero_shot_medium_answer_relevance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A5B8CC-CE53-4B40-A0DE-2D09E88171D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B63C1-C9DD-4155-99E0-6AC566721BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +383,7 @@
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -410,8 +410,12 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <f>AVERAGE(D2:D50)</f>
+        <v>0.85646258503401362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -425,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -439,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -453,7 +457,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -467,7 +471,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -481,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -495,7 +499,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -509,7 +513,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.6</v>
       </c>
@@ -523,7 +527,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -537,7 +541,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -551,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -565,7 +569,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -579,7 +583,7 @@
         <v>0.93333333333333324</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -593,7 +597,7 @@
         <v>0.93333333333333324</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.5</v>
       </c>
